--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U4I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U4I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25563F8F-85D4-43AC-862F-B1A5230327D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995042CC-4531-420F-956A-62FF9C3BC2CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D873B42-277D-4F15-AAD3-A35EDB625340}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1995,8 +1995,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" activeCellId="1" sqref="B2:B5 D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,8 +2031,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>13</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,8 +2045,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>14</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,8 +2059,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>15</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,8 +2073,8 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>16</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
